--- a/src/main/resources/excel-templates/custom-field-template.xlsx
+++ b/src/main/resources/excel-templates/custom-field-template.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/excel-templates/custom-field-template.xlsx
+++ b/src/main/resources/excel-templates/custom-field-template.xlsx
@@ -16,11 +16,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽度</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字段编码</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -67,32 +83,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>字段编码</t>
+      <t>外显名称</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>外显名称</t>
-    </r>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,33 +463,34 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
